--- a/Common/Template/EnumTemplate.xlsx
+++ b/Common/Template/EnumTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>枚举名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,23 +26,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>枚举显示名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Flag型的枚举值将由系统设定，非Flag型的枚举值可以省略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>枚举量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举显示名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*Flag型的枚举值将由系统设定，非Flag型的枚举值可以省略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字空间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +88,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,7 +158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,6 +175,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,179 +474,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B8" sqref="B8:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6">
-      <c r="C3" s="4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="3:6">
-      <c r="C4" s="4" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="1"/>
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="7" spans="3:6">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="3:6">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="3:6">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="3:6">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="3:6">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="3:6">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="3:6">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="3:6">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="3:6">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="3:5">
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="3:5">
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="3:5">
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="3:5">
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="3:5">
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="3:5">
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="3:5">
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="3:5">
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="3:5">
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="3:5">
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="3:5">
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="3:5">
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="3:5">
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="3:5">
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="3:5">
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="3:5">
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="3:5">
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
